--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2019/67_Samsun_2019.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2019/67_Samsun_2019.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\İllere Göre Tahsilat Tahakkuk 2019\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{630719B7-BB21-4E3A-AFCA-ED46CF20D62A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D6A2D68-C389-4335-BB94-411197954840}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="665" xr2:uid="{16E9949E-FFC5-4ACF-BD8A-8EBF84FC2C42}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="665" xr2:uid="{105065B7-ADCE-401B-B549-C5BAF4DDAA61}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="102" r:id="rId1"/>
@@ -960,14 +960,14 @@
   <cellStyles count="10">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{A7F2EC74-E80E-44A6-9D2D-504BD6F9B5A7}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{A39CD194-8A86-469B-AF18-652460458CE3}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{8A751CD7-EE68-4520-BF15-56EAA53E1170}"/>
-    <cellStyle name="Normal 3 2" xfId="5" xr:uid="{D9607A65-64E7-4B04-92B8-FD87100B7C09}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{6F9DBB8E-239F-44BB-9CD9-09D8CF7CA1ED}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{DA1E7692-93EF-45DD-AADB-D942DFE70CED}"/>
-    <cellStyle name="Not 2" xfId="8" xr:uid="{190A11BC-F504-4439-B4A7-B583E4F7B7EE}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{5BB4370B-441B-4B77-9174-648C861A35EB}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{32AA260F-47EF-4B08-82A9-B3E33E169576}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{31671207-8F71-4714-AC25-CA7863115D8B}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{C7A7CEF7-EFDD-4FC4-9AC0-E5A5F34B3EF6}"/>
+    <cellStyle name="Normal 3 2" xfId="5" xr:uid="{F168DC8F-E562-4CF0-8E94-D14CD6C8F358}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{2B97F4E7-AF7C-476B-B2FE-2B28224DA8C6}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{6DF84699-7546-4EFD-BC77-AE0EE8CA800C}"/>
+    <cellStyle name="Not 2" xfId="8" xr:uid="{02668D50-9835-4C92-ADF2-19CB2C7C0367}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{D71CC733-C930-4CAC-8BC7-55669D561D71}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1337,7 +1337,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B5569EA-AA1B-4AA5-822D-112E9F4DF043}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E54EC645-8CD3-4B8F-9832-256EF712036E}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2610,18 +2610,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{95FE339C-1FA3-4FC6-929E-689758DA0CD7}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D74584F6-3C5C-4799-B581-BAEEB72613AD}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{7F39AE2D-1132-4A7C-84A3-4FBE7361E4F9}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{67BFCFEE-FB7A-474C-A7EE-6A4DAD1ED806}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1C8BD39F-DF22-4CDE-8116-840084D9E63B}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{8F1774AB-A995-449B-82C7-0DCEBC88EA49}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7DF1B0B5-4723-482E-8347-820DB176C1FF}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2EAFCB16-5BEF-483E-839D-A1DDCA5D3919}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7491AD2B-DB5C-4888-AFFF-33CC8B2BC8DD}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{1DACB545-4DFC-44A2-8835-44D7A0EE410C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{514AB854-7DA6-47FE-BE7A-3B749C040FBB}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{65E9A140-715F-4959-A751-C97A3580CAB1}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{920A1461-2641-47F9-A333-8CEBE9F2FCCF}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A4A927E3-CC01-4B3A-A58C-3E45363515A6}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{B5468D2C-78B9-4CB4-B8FE-5FB72B0AEF56}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{F572F6E1-1337-43D7-BC93-BC6FB2C3AC73}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{53F6A5D8-4DE1-4BF5-B664-24B802A08289}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{2B701510-14E5-4D8D-A64D-57225B5A8BBC}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{36D272FE-ED4E-4CA0-8E9B-6A75AEC31AE0}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7F8B56B0-5C01-41DA-832A-311CCE6FB16C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{378057BD-D82E-41D4-8E4D-24664124EEC3}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{001E9377-3F81-4E6A-A663-9A212A69C241}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4CB9D22A-A2D6-4A46-B60C-CD6117A8EEAC}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{01A6E7D9-4FFF-4D49-9796-8A6FDEC89255}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2634,7 +2634,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE7E4B85-9491-4D71-88D8-8F0BD9ED77B3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB21C7E0-2CA5-4792-8F5D-35652A4C9484}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -3890,18 +3890,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8B81D664-4C97-4039-9C04-46793FE6660E}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0DF3D123-E5C2-4212-90AD-C6E6E4D13A11}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{1CEDB0C3-87AA-4D74-B4A0-1D48EB9D0B5E}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{DC8C487A-4ED0-4C89-A865-A49FB7D103B0}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D99BC183-5CC2-4962-982C-F444283C4F7A}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{FB02C355-74EA-468C-836B-676CC1BD2D8A}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6921C74E-32CB-4070-8FE0-60DB781A600C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{82920E7D-B964-4ABA-B574-AFE60BBBB312}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B650CB95-9192-4425-9C0A-12E02EAD2847}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{3643C18C-68A2-4D5B-A520-6671CDD0B4EA}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C3AFCC71-6827-46B8-BC50-F980DA72E157}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{EF7DEDD6-37C7-4466-8B18-CCE59797142C}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{91D86D09-9C1C-44C8-A262-89C65E3EE652}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{76728A76-BC3C-4A6C-8CCE-99A216B5E29D}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{BB6431B4-E7B9-4EE1-8CB7-E63CAA10D531}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{B796439E-ED88-4093-AC5D-9B72ECD33D84}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4B83487A-C768-4D06-B773-13A7F6524FDD}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{E591D251-01B6-4903-B4BB-E3DF13521710}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4EE29559-B243-479E-A7E0-BC5D9E0F295B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{025AB70C-998E-4B7D-8F61-01097D330581}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{43800185-14CA-4748-9676-9869473B5C52}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{1A30A287-C87E-4CD6-8FD7-487BE1AEE332}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{BD6CD9CC-34B9-49D9-B22D-50CCB4452BA1}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{689448DD-A8BA-44AF-94C3-3809D006A5BC}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3914,7 +3914,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C265BB70-3885-41D1-BDD4-DEA7BAD98037}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9697D3D9-0008-4BF9-960F-4CC56903A8AE}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -5170,18 +5170,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{165A7DEE-0DF2-4E1B-8E1F-3F2813E1917D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{10047E2A-4BB7-4380-92C6-B3F504F54FB0}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{4E1E5299-C7DF-41E9-BAC3-8B0AC6A991FE}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{DAEA0952-FB68-4124-AD4C-BA1D105605E8}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E836F9A6-BE60-46C1-9525-3B1016A13B8B}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{359C5124-92F5-498B-8BD2-676074105D0B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0833DA87-74BC-4D4A-9FE5-19DF7DB6EDF0}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F43BBAB2-A18B-4673-8B4C-8C8A4D5EEB86}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B4751B7D-5054-442E-9560-1E4A886C9BA5}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{86876712-0E8A-41E4-8565-B47C2B6D1166}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{EB729D78-2E1F-4E94-9A15-0C717EBEE291}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B434B211-B5A0-49D5-A0C4-73AA8A1C9262}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B76D401D-BC06-453C-BF26-A30A1BE41597}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{68D55A45-0A0D-4973-85C8-35733299D8D2}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{C49E17FE-19C4-4EC5-B962-03CA05C347D0}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{2E2884C4-FA50-426E-BE5A-14F3B89F6888}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{FA111981-CF0B-4B0E-936A-294917A2D447}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{1EBD0089-2C9A-4DCF-9333-B80653241439}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DB94CFCE-EFAF-40A2-9BA1-9AB26344F6A0}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6B42455C-7F9D-4B86-9F7B-43653B582630}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{588D960B-19FC-4A3B-8FCE-7474AD9BA92E}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{57C93D9C-59BC-46CA-8962-8893FCFC49CD}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7F5B3217-2EAA-48C4-94F7-F6FF6D37C6F6}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{186D28C7-70C1-48DE-B203-768B7D4EF033}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5194,7 +5194,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{442F8CFE-6392-482B-B9CA-DCC3F0EA785C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52250F5C-388F-4A31-9A8A-E7D4CA68206A}">
   <sheetPr codeName="Sayfa11"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -6450,18 +6450,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9F88D4B7-82A1-4791-AD0B-E6D3B2356D5D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{58F9A535-C98D-4F42-81DF-572803C4FA79}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{9DD9C8CB-782E-4802-A97A-D63D19E81356}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{57A043A6-87E9-4FAB-A427-A586EE0AEFF8}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3D230ED9-2697-4F94-812F-1016B6D4B9BD}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{64F4179B-C5A3-4E82-8DC6-BE331CBB02B1}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{18EFCD67-2EA4-4734-AB54-0874F8C222CB}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{64D23807-F1AD-4B55-9D0E-F84E143CD5EF}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{758C520F-F8A8-4820-8632-D384FAB10844}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{18E7972A-2C68-4172-BD13-7F000CC6D343}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2D115BCA-21C0-44C6-A048-B3C39A15D905}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{05111E9D-A71F-4A19-BF86-82C920452571}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{15D69332-C2D3-4909-B299-7E85DF7674F2}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{240212C7-7738-44F7-842D-89CBE94A2DCB}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{E3B3E928-8D38-4957-8B99-507C5398963E}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{C8538545-B3CA-43F4-8433-5193B509D60A}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{BF2E078B-B70A-4473-B2C9-56003BA6E3D7}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{BE6A765F-5CA7-4CCA-A0A5-2009E4B4B1D7}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{96B8A928-A1D1-4921-AA9E-403ACCCCF8CD}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C7480511-1840-468F-AC25-4C0E05D15986}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{06B3A5C2-583D-4AC1-8263-AA1538B5370A}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{11435CD6-5891-4FC0-B9D3-B1C1802ACDB3}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7FE96716-28C2-440E-8829-A328A053DD9A}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{15DF3D71-D5AE-41F2-AA87-C0211B5CB6FF}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6474,7 +6474,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5169219-2346-4C65-A533-AF04F5C78653}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F88B745-FA40-4646-9FDF-DA6D3FB01250}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7749,18 +7749,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{585FEF44-1A51-42B0-8876-10B175C29EF5}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6A1DFCDE-F2BD-4A32-8C22-0C81DE4761A5}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{F4CE876C-FF0B-40E6-8636-53E5167FE303}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{FCE32751-E80B-42FE-81EF-CE7520B246A3}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F7CB2A29-C6D5-42AC-8FA8-708E57882721}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{379B1E8D-1915-4AC5-BA72-DDE8D25650CE}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0ADC7A09-8859-4CF9-A2F1-2C8E8C4133FC}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{91CF90F8-58E9-4A56-AFBA-04B3598EB0BB}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C516D2E1-539A-4816-AE79-5FF8D28DE652}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{3CE76708-ADB9-46EE-A113-6CC282F59033}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{EBFB6A83-AC5C-4D44-939C-3513E0B22D5B}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{CB430401-2928-4249-AF39-5E9D33E560E1}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{79F9C8E9-4FC8-4635-AA4D-CA5657C0D5D4}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{069C4818-9E38-4B1C-AC85-5961769A2021}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{CF853325-939D-45FA-B8A2-07BCE00EF5AA}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{29192E68-1988-4D9E-B745-5063C8E292DE}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B27199A7-CF6B-4F6D-A4A0-A1D2AD2C7A09}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{94B87972-F3D6-4A60-81B7-1379EE2DB78C}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{50D1874C-5680-42CD-A623-536616BC9141}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1C641A36-040A-4D84-88A2-3811DAADF00F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E40C4415-AFC3-4B1B-980E-991EA080D12D}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E02B20BD-FE00-4351-AD5D-BC8A6A27E545}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0B035A7A-60E7-4135-A3DD-DEC2D1143D97}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{2F69873E-DE4E-446C-942C-E56630A1EFAF}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7773,7 +7773,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1EB808C-5EDD-4BE6-98DC-9072187BCFF0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57497C7F-9CD5-49A1-8F74-EB3D5F7C889D}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9048,18 +9048,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{ECD798FE-A6AC-4A99-97AF-DE51A1AE6B0C}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5DFE78DF-DC81-4E83-BFA9-95B787C26507}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{DE02FB31-7B3D-4D82-A8FA-74D81F8C061D}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{54D33AF7-EC73-4CA3-B572-2BB5979F4042}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5D381409-5AD8-4183-AAD8-EBA5A799C4F7}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{17F5FDCA-8970-4818-9023-883C5D66E579}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{AF8B98E9-8ACE-4E64-85C4-548B47CFB1F5}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1F2ED028-0FD7-43D5-B010-32D10C660B6C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C6035965-704F-4458-82A7-BF63213BC15C}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{19671DA1-7A6B-478C-A48D-682B71255C22}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FE00BCFF-ED30-412B-BFF5-801B5298C536}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{AFB01CD4-F354-432F-B088-A09F48464DC7}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0FBCA781-76FB-47FD-BE97-7544F32A11AC}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{16F1BAB4-CC58-4DAB-B7B6-10075BD410FA}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{0C943945-224F-413B-8603-B2A32112A5DD}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{60B37B4C-6841-4B49-92FA-8306F6F8E41E}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{983C4E5E-447A-4D57-942E-6F4E23A06679}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{2D3DC2F3-6FD2-4CFC-9A86-9C11EC4A93C6}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E7A8A9CE-12FE-4BD4-B35D-91E4CE07B10E}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{DA3BA2B1-0401-4101-B82E-97953A1248CF}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F956F89C-BAA4-41B7-B17F-D29B31496BAF}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{92292FCF-42DA-4D5A-8277-AC6348EA1E83}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C0AFB4C9-C6A5-4E35-B087-4DD34D3D4CA3}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6EF3A689-247B-4015-81B3-E222DA4E6CF5}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9072,7 +9072,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56D2E3DD-7E5C-4959-A0B9-6B2D65C39A26}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{566FAF03-71FE-49B6-83F6-26CE732D512B}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10347,18 +10347,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{18038CA3-5107-4045-B582-943727ED3779}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{37E58241-4D05-4B41-B184-877200F92DDC}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{8131870C-D808-4972-B1B3-BB5D32052519}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{2BD7F750-343C-482B-9B96-7FC64FA564F8}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C49E0D00-D1FA-4687-B77D-C8817A7F4D3E}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{AF42AB8F-0732-49D1-8176-CB01C44B7760}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{52014B32-C40E-49BF-880B-5E5B90746FD5}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8B4BD304-F418-4889-80F9-6EF62DB30649}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C3E25770-D43E-4393-B906-E752937A1DA7}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{2F52B241-A48F-4A8D-AF89-92BE54DF1E4C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A680FE2C-3D86-4FBD-A79B-8449C597CBA9}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C1758ACE-8D74-4F68-A9C0-8A85BA111674}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{40E7EE96-DD48-45FA-B508-2304157060F9}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{229503BB-194F-41D8-9B84-1B528CDBB548}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{F30D1959-7979-429E-A95B-6953EE95C87E}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{86C7B32D-9A39-48D7-8933-8C432D2469BC}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6C72E2A0-C8F7-4FDA-B5A9-4D5AAD503E5F}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{48843087-9B5D-44FD-8B98-F6F1BE5BA351}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C4A00151-4A06-4517-9051-E32D6499D844}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{29A85B05-F9ED-4B27-AA30-27AE74031B22}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{BDC72992-6306-4825-8BD3-C37704BB5C5F}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{CE3BC384-7B03-49AB-BC8C-496A1F1769F6}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6E7D2E4B-235C-4789-B456-20731E1F5E12}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{2B2B5D5A-700D-4D2A-A8FE-205A6ACE8166}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10371,7 +10371,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42B4D216-8D98-45C8-9394-F9F1F26D2A05}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F4DE495-F38D-4DFD-8F6B-E9B3FBEF1163}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11646,18 +11646,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0881E20F-A166-4864-8012-EC2153ACF42D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CE7D6379-C0D9-49C1-A98E-EAC6BF9E853A}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{161BCE2F-D5CB-4E78-9625-F76931877D2A}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{B94B664E-863E-4CFE-9817-00990B0D32A5}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{305765E7-FFC6-4FF8-99AF-B61A5A192211}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{77E8D6FC-2BC9-4BFF-A91B-D316D34884F3}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{EE7691C3-EB8D-4F9F-B7C4-0728B73BBB80}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E6513734-F967-41DD-8B9A-A8FED3C1B446}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{1D681757-4B4F-480C-A5E6-7C0C687BB784}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D4C0BD3A-EED0-43FC-93D6-96D93282214C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4A24CB27-30B6-4AA3-BC9C-EC6324471D74}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F02E87BE-D3E2-4C3F-B107-D54803A819D7}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{CA977471-FEFE-4D79-B009-F0CB63AA9BAB}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8F7838FB-C2AA-47A5-85A7-3F0909C9DE5C}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{9477AACF-BE69-4AAD-B7F9-F395D7E0940B}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{5517C7E6-A56A-41E6-A073-D4B9B06AA191}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{158925D4-3A8D-45E1-BE32-6D6D3A75828F}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{CAD333EB-5123-47F2-AD60-FE6F565377F1}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{090DDA06-E61B-41DB-98D8-9E095A8A17D1}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{36357E92-59AC-4251-8A72-B2B7D58C46B6}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E1002AAE-7A90-4EAB-8737-4DB9C9CD2ADA}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{012C4935-BF54-4015-8D74-81E64CB2A119}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E1C260C4-AD80-4F0C-A37A-CEBBA457A413}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{90FFCD1F-7094-483D-8AC6-3E36A7EABBBB}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11670,7 +11670,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76CE67BD-0758-4A39-BC2F-9067E4A69A9F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDCAB60F-43AB-4517-84A3-EE8726FF6050}">
   <sheetPr codeName="Sayfa6"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -12934,18 +12934,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1D24BFC6-5E7E-4C9F-B0FF-6B0697C52812}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{BD48DC31-EAD0-4360-8121-1E427D242FAF}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{E46894FF-6DC1-4FDF-858E-82398AE5129E}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{B1BDE943-BA8B-4BBE-84DD-F33C78E198F1}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{813060D2-F7B3-4438-942A-0AF2980C9A6D}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{64D1EA9B-5102-43AB-9615-DECB78CCF069}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{76486D31-1FA1-4343-BCE9-E7A792D561DC}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{84DFD2DC-37BB-494D-B21E-29403BE4045B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8E981859-1E82-4670-AE8B-4F8D65C9B55E}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F4577002-8921-431C-87AD-BEA8418F4EEF}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6D0A9D56-7F2D-4D1F-B9C9-41B7A3B497A6}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{CE5F1570-814F-4171-B0C6-96A09C100A87}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E2BB9D1C-E5B5-4825-B1FA-44330F60489F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{FF97B9CD-5907-4AC0-AB0A-EB2D6B4F317F}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{BA24E9E6-3AD7-40FE-A42E-E90C4C329D1D}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{6583E9EC-581E-4975-99E7-FB1D1447D917}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{177A6566-D9B9-40E3-B4D5-A11A9850A789}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{73C95BD6-BC43-4980-A420-C2C293161328}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7CF73011-09F9-435E-B7AC-9A4471F7D75D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{57E1D6CD-2765-4F12-A87D-B4ABAFEF3CD8}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{80A10860-9CF9-40F4-99A6-75DB46D7969F}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{8B3DE7EF-CA69-4CFB-84AC-6F6D307CEAB2}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D3A3053B-F159-4026-B392-9563018F644C}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{2483C2AD-04CC-4A0B-AE73-F11713F0C659}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12958,7 +12958,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{710C7364-8D13-4DF2-9225-D2863CEC9846}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9292EEDC-C6E3-4408-8D86-CCB3472130B5}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -14218,18 +14218,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C81D2303-8AE2-4B17-96B9-7A0B17C1C9E2}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3B6B8741-6595-4E3D-B1CC-D780143B4670}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{344C8CA2-133C-4D25-AB1B-46BA7540598E}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{1834CE1F-3AFE-4184-9D44-FCE3099ECF88}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9A9BC6F6-20BA-4187-8491-AAC8B22B2B9C}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{FC1374F2-E97C-4FE6-ACAC-F4F086EFBEBC}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2050EC00-EC32-4559-B9AD-4B2E16B7966F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{274379C2-4CC5-4E99-9B23-675D4B2AB4F5}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{AC7E5393-CB61-4E88-9220-5939B168A3EB}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{CCE41E48-361F-40B3-B4E7-16B51D2184EA}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B083B614-051C-4124-808F-F07477BA74E6}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{83BDC88B-CBE9-48D7-A373-9BED4F8EC498}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C08BA7C3-8737-4D45-BD55-DC433823F2B3}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6CE34566-DE43-43B6-A47E-D72195DE61D5}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{E6F63F82-933A-47A7-A064-42AC75910CF0}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{BC89E7B5-6A14-40A3-918B-0CD407EA849D}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1AC40BCE-BA5E-4443-882E-81D6324016C1}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{94720AF0-A1FD-466E-885E-3F6011DE57B1}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D4AB55E0-9796-4B0A-876A-438C79C49FD5}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{01812A1B-F1E2-4754-9E09-58DB241B2145}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B2A207C9-B1A3-49DF-AAC4-122A11B44821}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{0C976C9E-B9BC-44F0-9FE3-1F3B0783E361}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F166AFC7-D499-4E38-B7FF-D50B0A51CFF4}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{AAD8684B-13B9-4EC3-B9B3-D083D23631C5}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14242,7 +14242,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78A9BC86-342E-46CF-81E5-806236EC5FD8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{980E19D3-266E-4C00-B568-88C2B62323FD}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -15502,18 +15502,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A0836FC5-4EB2-4810-9BA7-8C9B00F0550F}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{40938F64-482A-49B4-9814-2EABA2DB697B}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{19D51161-2ED2-454E-8681-097BC4715E3E}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{0EB91430-6FB2-426A-BE7E-79F7CC67B923}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8E6EF23F-800D-40D0-B308-523602CC680A}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{DD2D7B42-2A80-44AE-A631-79ED534A5880}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DDB355FA-E7F7-4E8A-9B48-74CE766A7A30}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E3E9F21D-1F7F-4877-A5E8-187845B81767}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0747D522-4623-4D81-B1B2-77A6C8790DCE}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{4CC0D7D3-3CCC-484B-AC75-0CC156C69939}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{802C425E-CDC7-4502-A151-06BFC6CB3A85}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C2A03004-4B09-4FF3-B6AF-612F96555A39}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{AF1B6655-6583-432B-8E3B-F8E4EE0BE26E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{AC18B1EE-F2AC-48E8-9659-1716D1C5A2B5}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{29DCFE85-9307-4412-8F05-5F830046DF44}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{8DA76D7E-07C6-46CB-9A25-0FDE87E3849B}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{03BA03BC-078D-4949-98CC-7B6377AE010A}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{ABB2E33A-EB92-42FC-A357-304F263DB4BD}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{97F008E8-467E-48F6-85EE-AB17E74893E5}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B0A4B4FF-78AD-40D4-AFCB-7F124525A7F0}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{35BF994D-9AE3-49F3-8F08-4B7EF11486DF}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{B581417C-688F-407A-9899-3297442D8C91}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{82D9A17B-FF91-49BD-BA06-06243EE31CDE}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{59F2162E-D5F2-4024-AB66-18970FA8A97C}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15526,7 +15526,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{002B922F-5BF6-48F9-8348-ABEE4BEE96A9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E7B7415-F209-4CC1-A87A-646A298200CD}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -16782,18 +16782,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9AB4E1A6-9B7B-4270-A1F4-C3C6EFB17E75}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0D8BEB14-1F2E-4D5B-B833-142B46336FD4}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{18FFF050-9A95-437D-B97F-11440AAB5158}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{8BEC32B2-E968-4698-B822-0C15BE2B1085}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{75ADD8DC-980D-4996-B72E-787D008DDFFF}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{40F652CA-CF2E-4C6B-852C-DA597625ED53}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0651D484-6821-4E94-8325-33FCB6B526E2}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5934D343-74CC-4982-8B0B-13CEDFC2854E}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{89ADFF72-4D1A-4DE6-93FC-5803D356337E}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{2302C938-8749-44B7-9129-605A76AFDF6A}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6A300F27-52DE-4D84-8E4D-2B0B12F8BE2A}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{767FF8DB-8D18-4B3C-BDA7-0A3C7F077090}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D132DC2B-E4EE-4AEE-BAE2-78837BB074BA}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C32B78CE-C67E-47B6-B97B-DB984E52C2AD}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{DA3E81FF-C88D-4FDA-855F-49508DBD3AF8}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{177BB957-6C03-4B93-8787-B5851738F636}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{55E40ED0-1E2E-42AA-8DD3-6A109FBEB8E1}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{F284035B-B9D5-4139-A6E7-C1774F241709}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{763FB5BC-41A7-4F27-98A4-7D07EFFEBD2D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{149B29C8-98A7-441F-A8EB-F260D8CCF50E}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4AF3B720-FE6B-47CD-9CC4-CB2E29EC04CA}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{ADEDDA4C-E267-424E-AB1D-BBC47A31DC01}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{21F3B889-5FAB-4653-86FF-06A103A0B393}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7F0DA203-F3BC-4E08-AFDC-95209AC32B7F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
